--- a/medicine/Mort/Cimetière_de_prison/Cimetière_de_prison.xlsx
+++ b/medicine/Mort/Cimetière_de_prison/Cimetière_de_prison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_prison</t>
+          <t>Cimetière_de_prison</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un cimetière de prison est un cimetière réservé aux cadavres de prisonniers. En général, les restes des détenus qui ne sont pas réclamés par la famille ou les amis sont enterrés dans un cimetière de prison, dont des condamnés exécutés pour des crimes capitaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cimetière de prison est un cimetière réservé aux cadavres de prisonniers. En général, les restes des détenus qui ne sont pas réclamés par la famille ou les amis sont enterrés dans un cimetière de prison, dont des condamnés exécutés pour des crimes capitaux.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_prison</t>
+          <t>Cimetière_de_prison</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste de cimetières de prison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aux États-Unis
 Fort Leavenworth (Kansas)
@@ -522,11 +536,11 @@
 Mississippi
 2 cimetières, pénitencier de l'État du Mississippi (Parchman), comté de Sunflower
 Caroline du Sud
-Cimetière d'État, alias Cimetière pénitentiaire (surnommé "Tickleberry"), Établissement correctionnel central (Columbia), comté de Richland[2],[3]
+Cimetière d'État, alias Cimetière pénitentiaire (surnommé "Tickleberry"), Établissement correctionnel central (Columbia), comté de Richland,
 Texas
 Cimetière du capitaine Joe Byrd, à Huntsville (les restes non réclamés de détenus exécutés pour meurtre qualifié (en) sont enterrés ici, mais le cimetière comprend également les restes de détenus non exécutés)
-Un cimetière, à Clemens Unit, dans le comté de Brazoria[4]
-Cimetière impérial de la ferme d'État, Unité centrale, à Sugar Land[5]
+Un cimetière, à Clemens Unit, dans le comté de Brazoria
+Cimetière impérial de la ferme d'État, Unité centrale, à Sugar Land
 École d'État de Gatesville, à Gatesville</t>
         </is>
       </c>
